--- a/Database .xlsx
+++ b/Database .xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="192">
   <si>
     <t>Commodity</t>
   </si>
@@ -364,9 +364,6 @@
     <t>Golden/White</t>
   </si>
   <si>
-    <t>retailer assigned (4591)</t>
-  </si>
-  <si>
     <t>Choy</t>
   </si>
   <si>
@@ -481,47 +478,122 @@
     <t>Brown</t>
   </si>
   <si>
-    <t>Black (4266)</t>
-  </si>
-  <si>
     <t>White/ Dried</t>
   </si>
   <si>
-    <t>Brown (4267)</t>
-  </si>
-  <si>
-    <t>White / Green (4268)</t>
-  </si>
-  <si>
-    <t>dried (3337)</t>
-  </si>
-  <si>
-    <t>retailer assigned (4269)</t>
+    <t>Retailed Assigned</t>
   </si>
   <si>
     <t>Garlic</t>
   </si>
   <si>
-    <t>Elephant (4609)</t>
-  </si>
-  <si>
-    <t>One-clove types (3401)</t>
-  </si>
-  <si>
-    <t>Regular (4608), fresh or semi-dried with leaves attached (3399), smoked (3400)</t>
-  </si>
-  <si>
-    <t>String (3052)</t>
-  </si>
-  <si>
-    <t>retailer assigned (4610-4611)</t>
+    <t>Elephant</t>
+  </si>
+  <si>
+    <t>On-clove Types</t>
+  </si>
+  <si>
+    <t>Sem-dried</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Ginger</t>
+  </si>
+  <si>
+    <t>Root</t>
+  </si>
+  <si>
+    <t>Gobo Root</t>
+  </si>
+  <si>
+    <t>Grape</t>
+  </si>
+  <si>
+    <t>Blue/Black Seeded</t>
+  </si>
+  <si>
+    <t>Champagne</t>
+  </si>
+  <si>
+    <t>Concord</t>
+  </si>
+  <si>
+    <t>Fantasy</t>
+  </si>
+  <si>
+    <t>Italian, Seeded</t>
+  </si>
+  <si>
+    <t>Red, Seeded</t>
+  </si>
+  <si>
+    <t>Autumn, Seedless</t>
+  </si>
+  <si>
+    <t>White/ Green Seeded</t>
+  </si>
+  <si>
+    <t>Grapefruit</t>
+  </si>
+  <si>
+    <t>Sweetie</t>
+  </si>
+  <si>
+    <t>Deep Red</t>
+  </si>
+  <si>
+    <t>Small-(Organic)</t>
+  </si>
+  <si>
+    <t>Large-(Organic)</t>
+  </si>
+  <si>
+    <t>Extra Large-(Organic)</t>
+  </si>
+  <si>
+    <t>Greens</t>
+  </si>
+  <si>
+    <t>Arugula / Rocket (4884)</t>
+  </si>
+  <si>
+    <t>Collards (4614)</t>
+  </si>
+  <si>
+    <t>Dandelion (4615)</t>
+  </si>
+  <si>
+    <t>Kale (4627), multicolor (3095)</t>
+  </si>
+  <si>
+    <t>Mustard (4616)</t>
+  </si>
+  <si>
+    <t>Polk Greens (4617)</t>
+  </si>
+  <si>
+    <t>Texas Mustard (4618)</t>
+  </si>
+  <si>
+    <t>Turnip (4619)</t>
+  </si>
+  <si>
+    <t>retailer assigned (4620-4624)</t>
+  </si>
+  <si>
+    <t>Guava</t>
+  </si>
+  <si>
+    <t>Guava (4299)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -536,18 +608,17 @@
       <name val="Arial"/>
     </font>
     <font>
-      <i/>
-      <color rgb="FF0A0000"/>
-      <name val="Inherit"/>
-    </font>
-    <font/>
-    <font>
       <b/>
       <sz val="11.0"/>
       <color rgb="FF0A0000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF0A0000"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <i/>
       <color rgb="FF0A0000"/>
       <name val="Inherit"/>
     </font>
@@ -578,7 +649,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -591,13 +662,10 @@
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -2650,16 +2718,13 @@
       <c r="D134" s="1">
         <v>4258.0</v>
       </c>
-      <c r="G134" s="3" t="s">
-        <v>117</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="D135" s="1">
         <v>3163.0</v>
@@ -2667,13 +2732,13 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="D136" s="1">
         <v>4544.0</v>
@@ -2681,10 +2746,10 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>12</v>
@@ -2695,10 +2760,10 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>79</v>
@@ -2709,12 +2774,12 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C139" s="4" t="s">
+      <c r="C139" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="1">
@@ -2723,10 +2788,10 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>12</v>
@@ -2737,10 +2802,10 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>79</v>
@@ -2751,10 +2816,10 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>12</v>
@@ -2765,10 +2830,10 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>12</v>
@@ -2779,10 +2844,10 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>12</v>
@@ -2793,10 +2858,10 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>12</v>
@@ -2807,10 +2872,10 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>12</v>
@@ -2821,13 +2886,13 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="C147" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="D147" s="1">
         <v>3086.0</v>
@@ -2835,10 +2900,10 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>10</v>
@@ -2849,13 +2914,13 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B149" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="C149" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D149" s="1">
         <v>3087.0</v>
@@ -2863,13 +2928,13 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="C150" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D150" s="1">
         <v>4589.0</v>
@@ -2877,10 +2942,10 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>79</v>
@@ -2891,13 +2956,13 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="C152" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D152" s="1">
         <v>4590.0</v>
@@ -2905,10 +2970,10 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>24</v>
@@ -2919,10 +2984,10 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>45</v>
@@ -2933,10 +2998,10 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>12</v>
@@ -2947,10 +3012,10 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>12</v>
@@ -2961,13 +3026,13 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D157" s="1">
         <v>4062.0</v>
@@ -2975,10 +3040,10 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>24</v>
@@ -2989,10 +3054,10 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>12</v>
@@ -3003,10 +3068,10 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>12</v>
@@ -3017,7 +3082,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>12</v>
@@ -3031,13 +3096,13 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="D162" s="1">
         <v>3305.0</v>
@@ -3045,7 +3110,7 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>12</v>
@@ -3059,10 +3124,10 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>12</v>
@@ -3073,13 +3138,13 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D165" s="1">
         <v>3045.0</v>
@@ -3087,10 +3152,10 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>12</v>
@@ -3101,12 +3166,12 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C167" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C167" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D167" s="1">
@@ -3115,7 +3180,7 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>17</v>
@@ -3129,7 +3194,7 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>17</v>
@@ -3143,7 +3208,7 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>17</v>
@@ -3157,7 +3222,7 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>79</v>
@@ -3184,7 +3249,7 @@
     </row>
     <row r="174">
       <c r="B174" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D174" s="1">
         <v>4601.0</v>
@@ -3194,15 +3259,15 @@
       <c r="B175" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D175" s="4">
+      <c r="D175" s="1">
         <v>4081.0</v>
       </c>
     </row>
     <row r="176">
       <c r="B176" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D176" s="4">
+        <v>150</v>
+      </c>
+      <c r="D176" s="1">
         <v>3090.0</v>
       </c>
     </row>
@@ -3210,7 +3275,7 @@
       <c r="B177" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D177" s="4">
+      <c r="D177" s="1">
         <v>4602.0</v>
       </c>
     </row>
@@ -3224,15 +3289,15 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D179" s="1">
         <v>4265.0</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="4" t="s">
-        <v>153</v>
+      <c r="A180" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="D180" s="1">
         <v>4606.0</v>
@@ -3240,80 +3305,468 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D181" s="1">
+        <v>4266.0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B181" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G181" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="C182" s="1" t="s">
+      <c r="D182" s="1">
+        <v>4267.0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C183" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G182" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="C183" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G183" s="6" t="s">
-        <v>158</v>
+      <c r="D183" s="1">
+        <v>4268.0</v>
       </c>
     </row>
     <row r="184">
+      <c r="A184" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C184" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G184" s="6" t="s">
+      <c r="D184" s="1">
+        <v>3337.0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D185" s="1">
+        <v>4269.0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D186" s="1">
+        <v>4609.0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="B187" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="185">
-      <c r="G185" s="3" t="s">
+      <c r="D187" s="1">
+        <v>3401.0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="B188" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D188" s="1">
+        <v>4608.0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="B189" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="186">
-      <c r="G186" s="3" t="s">
+      <c r="D189" s="1">
+        <v>3399.0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="B190" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="187">
-      <c r="G187" s="5" t="s">
+      <c r="D190" s="1">
+        <v>3052.0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="188">
-      <c r="G188" s="6" t="s">
+      <c r="B191" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="189">
-      <c r="G189" s="6" t="s">
+      <c r="C191" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D191" s="1">
+        <v>4612.0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="B192" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" s="1">
+        <v>4613.0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="190">
-      <c r="G190" s="6" t="s">
+      <c r="D193" s="1">
+        <v>3091.0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="191">
-      <c r="G191" s="6" t="s">
+      <c r="B194" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="192">
-      <c r="G192" s="3" t="s">
+      <c r="D194" s="1">
+        <v>4270.0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="B195" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D195" s="1">
+        <v>4957.0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="B196" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D196" s="1">
+        <v>4056.0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="B197" s="1" t="s">
         <v>167</v>
+      </c>
+      <c r="D197" s="1">
+        <v>4271.0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="B198" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D198" s="1">
+        <v>4272.0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="B199" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D199" s="1">
+        <v>4638.0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="B200" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D200" s="1">
+        <v>3043.0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="B201" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D201" s="1">
+        <v>4273.0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="B202" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D202" s="1">
+        <v>4497.0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="B203" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D203" s="1">
+        <v>4274.0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="B204" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D204" s="1">
+        <v>4022.0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="B205" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D205" s="1">
+        <v>4498.0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D206" s="1">
+        <v>3092.0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="B207" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D207" s="1">
+        <v>4285.0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="C208" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D208" s="1">
+        <v>42841.0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="C209" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D209" s="1">
+        <v>42862.0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="C210" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D210" s="1">
+        <v>4288.0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="C211" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D211" s="1">
+        <v>42892.0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="C212" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D212" s="1">
+        <v>42871.0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="C213" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D213" s="1">
+        <v>4492.0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="C214" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D214" s="1">
+        <v>44911.0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="C215" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D215" s="1">
+        <v>44932.0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="B216" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216" s="1">
+        <v>4291.0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="C217" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D217" s="1">
+        <v>42901.0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="C218" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D218" s="1">
+        <v>42922.0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="C219" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D219" s="1">
+        <v>4294.0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="C220" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D220" s="1">
+        <v>42931.0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="C221" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D221" s="1">
+        <v>42952.0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="C222" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D222" s="1">
+        <v>3159.0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="C223" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D223" s="1">
+        <v>31571.0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="C224" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D224" s="1">
+        <v>315582.0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="F226" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="F227" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="F228" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="F229" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="F230" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="F231" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="F232" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="F233" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="F234" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="F235" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="F236" s="4" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/Database .xlsx
+++ b/Database .xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="565">
   <si>
     <t>Commodity</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Portions</t>
   </si>
   <si>
-    <t>Youtube Link</t>
-  </si>
-  <si>
     <t>Apples</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
     <t xml:space="preserve">GrannySmith </t>
   </si>
   <si>
-    <t>All Sizes</t>
-  </si>
-  <si>
     <t>Apricot</t>
   </si>
   <si>
@@ -85,9 +79,15 @@
     <t>Purple</t>
   </si>
   <si>
+    <t>3 Portions</t>
+  </si>
+  <si>
     <t>White</t>
   </si>
   <si>
+    <t>2 Portions</t>
+  </si>
+  <si>
     <t>Avocado</t>
   </si>
   <si>
@@ -97,6 +97,12 @@
     <t>Seedless</t>
   </si>
   <si>
+    <t>4 Portions</t>
+  </si>
+  <si>
+    <t>5 Portions</t>
+  </si>
+  <si>
     <t>Medium</t>
   </si>
   <si>
@@ -556,44 +562,1157 @@
     <t>Greens</t>
   </si>
   <si>
-    <t>Arugula / Rocket (4884)</t>
-  </si>
-  <si>
-    <t>Collards (4614)</t>
-  </si>
-  <si>
-    <t>Dandelion (4615)</t>
-  </si>
-  <si>
-    <t>Kale (4627), multicolor (3095)</t>
-  </si>
-  <si>
-    <t>Mustard (4616)</t>
-  </si>
-  <si>
-    <t>Polk Greens (4617)</t>
-  </si>
-  <si>
-    <t>Texas Mustard (4618)</t>
-  </si>
-  <si>
-    <t>Turnip (4619)</t>
-  </si>
-  <si>
-    <t>retailer assigned (4620-4624)</t>
+    <t>Arugula</t>
+  </si>
+  <si>
+    <t>Collards</t>
+  </si>
+  <si>
+    <t>Dandelion</t>
+  </si>
+  <si>
+    <t>Kale</t>
+  </si>
+  <si>
+    <t>Multicolor</t>
+  </si>
+  <si>
+    <t>Mustard</t>
+  </si>
+  <si>
+    <t>Polk Greens</t>
+  </si>
+  <si>
+    <t>Texas Mustard</t>
+  </si>
+  <si>
+    <t>Turnip</t>
   </si>
   <si>
     <t>Guava</t>
   </si>
   <si>
-    <t>Guava (4299)</t>
+    <t>Herbs</t>
+  </si>
+  <si>
+    <t>Aloe Vera Leaves</t>
+  </si>
+  <si>
+    <t>Anise</t>
+  </si>
+  <si>
+    <t>Baby Dill</t>
+  </si>
+  <si>
+    <t>Basil</t>
+  </si>
+  <si>
+    <t>Opal</t>
+  </si>
+  <si>
+    <t>Sweet</t>
+  </si>
+  <si>
+    <t>Bay Leaves</t>
+  </si>
+  <si>
+    <t>Borage</t>
+  </si>
+  <si>
+    <t>Chervil</t>
+  </si>
+  <si>
+    <t>Chives</t>
+  </si>
+  <si>
+    <t>Cilantro</t>
+  </si>
+  <si>
+    <t>Dill</t>
+  </si>
+  <si>
+    <t>Fennel</t>
+  </si>
+  <si>
+    <t>Fennel Leaves</t>
+  </si>
+  <si>
+    <t>Lemon Graass</t>
+  </si>
+  <si>
+    <t>Marjoram</t>
+  </si>
+  <si>
+    <t>Mint</t>
+  </si>
+  <si>
+    <t>Oregano</t>
+  </si>
+  <si>
+    <t>Oyster Plant</t>
+  </si>
+  <si>
+    <t>Parsley Root</t>
+  </si>
+  <si>
+    <t>Parsley</t>
+  </si>
+  <si>
+    <t>Regular/Curly</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>Pickling Dill</t>
+  </si>
+  <si>
+    <t>Rosemary</t>
+  </si>
+  <si>
+    <t>Sage</t>
+  </si>
+  <si>
+    <t>Savory</t>
+  </si>
+  <si>
+    <t>Sorrel</t>
+  </si>
+  <si>
+    <t>Tarragen</t>
+  </si>
+  <si>
+    <t>Thyme</t>
+  </si>
+  <si>
+    <t>Vanilla Bean</t>
+  </si>
+  <si>
+    <t>Watercress</t>
+  </si>
+  <si>
+    <t>Other Herbs</t>
+  </si>
+  <si>
+    <t>Homli Fruit</t>
+  </si>
+  <si>
+    <t>Horseradish Root</t>
+  </si>
+  <si>
+    <t>Jicama</t>
+  </si>
+  <si>
+    <t>Kiwi Fruit</t>
+  </si>
+  <si>
+    <t>Jumbo</t>
+  </si>
+  <si>
+    <t>Kohlrabi</t>
+  </si>
+  <si>
+    <t>All Colors</t>
+  </si>
+  <si>
+    <t>Kumquat</t>
+  </si>
+  <si>
+    <t>Leek</t>
+  </si>
+  <si>
+    <t>Baby Leek</t>
+  </si>
+  <si>
+    <t>Baby Bunch</t>
+  </si>
+  <si>
+    <t>Lettuce</t>
+  </si>
+  <si>
+    <t>Bibb</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>Butter</t>
+  </si>
+  <si>
+    <t>Catalogna</t>
+  </si>
+  <si>
+    <t>Green Leaf</t>
+  </si>
+  <si>
+    <t>Hydroponic</t>
+  </si>
+  <si>
+    <t>Iceberg</t>
+  </si>
+  <si>
+    <t>Coral Green</t>
+  </si>
+  <si>
+    <t>Coral Red</t>
+  </si>
+  <si>
+    <t>Mache</t>
+  </si>
+  <si>
+    <t>Mignonette</t>
+  </si>
+  <si>
+    <t>Mixed</t>
+  </si>
+  <si>
+    <t>Oak Leaf</t>
+  </si>
+  <si>
+    <t>Red Leaf</t>
+  </si>
+  <si>
+    <t>Lime</t>
+  </si>
+  <si>
+    <t>West Indian</t>
+  </si>
+  <si>
+    <t>Limequat</t>
+  </si>
+  <si>
+    <t>Longon</t>
+  </si>
+  <si>
+    <t>Loquat</t>
+  </si>
+  <si>
+    <t>Lotus Root</t>
+  </si>
+  <si>
+    <t>Lychee</t>
+  </si>
+  <si>
+    <t>Madrona</t>
+  </si>
+  <si>
+    <t>Malanga</t>
+  </si>
+  <si>
+    <t>Mamey</t>
+  </si>
+  <si>
+    <t>Mango</t>
+  </si>
+  <si>
+    <t>Bowen &amp; Kensington Pride</t>
+  </si>
+  <si>
+    <t>R2E2</t>
+  </si>
+  <si>
+    <t>Magosteen</t>
+  </si>
+  <si>
+    <t>Melon</t>
+  </si>
+  <si>
+    <t>Yellow Honeydew</t>
+  </si>
+  <si>
+    <t>Muskmelon</t>
+  </si>
+  <si>
+    <t>Casaba</t>
+  </si>
+  <si>
+    <t>Charentais</t>
+  </si>
+  <si>
+    <t>Cinnabar</t>
+  </si>
+  <si>
+    <t>Crenshaw</t>
+  </si>
+  <si>
+    <t>French Afternoon</t>
+  </si>
+  <si>
+    <t>French Breakfast</t>
+  </si>
+  <si>
+    <t>Galia</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>Sprite</t>
+  </si>
+  <si>
+    <t>Watermelon</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Red-Seedless</t>
+  </si>
+  <si>
+    <t>Yellow-Seedless</t>
+  </si>
+  <si>
+    <t>Mushroom</t>
+  </si>
+  <si>
+    <t>Black Forest</t>
+  </si>
+  <si>
+    <t>Cep</t>
+  </si>
+  <si>
+    <t>Chanterelle</t>
+  </si>
+  <si>
+    <t>Cemini</t>
+  </si>
+  <si>
+    <t>Enoki</t>
+  </si>
+  <si>
+    <t>Fairy Ring Champignon</t>
+  </si>
+  <si>
+    <t>Grey Tricholoma</t>
+  </si>
+  <si>
+    <t>Grisette</t>
+  </si>
+  <si>
+    <t>Horn of Plenty</t>
+  </si>
+  <si>
+    <t>Morel</t>
+  </si>
+  <si>
+    <t>Oyster</t>
+  </si>
+  <si>
+    <t>Pioppomp</t>
+  </si>
+  <si>
+    <t>Portabella</t>
+  </si>
+  <si>
+    <t>Saffaron Milk-Crap</t>
+  </si>
+  <si>
+    <t>Sheep PolyPore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shiitake </t>
+  </si>
+  <si>
+    <t>Wood Ear</t>
+  </si>
+  <si>
+    <t>Nectarine</t>
+  </si>
+  <si>
+    <t>Red Flesh</t>
+  </si>
+  <si>
+    <t>White Flesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small </t>
+  </si>
+  <si>
+    <t>Yellow Flesh</t>
+  </si>
+  <si>
+    <t>Nuts</t>
+  </si>
+  <si>
+    <t>Almonds</t>
+  </si>
+  <si>
+    <t>Brazil Nuts</t>
+  </si>
+  <si>
+    <t>Cashews</t>
+  </si>
+  <si>
+    <t>Chestnuts</t>
+  </si>
+  <si>
+    <t>Fiberts</t>
+  </si>
+  <si>
+    <t>Macadamia</t>
+  </si>
+  <si>
+    <t>Peanuts</t>
+  </si>
+  <si>
+    <t>Raw</t>
+  </si>
+  <si>
+    <t>Roatsed Salted</t>
+  </si>
+  <si>
+    <t>Roasted Unsalted</t>
+  </si>
+  <si>
+    <t>Pecans</t>
+  </si>
+  <si>
+    <t>Pine Nuts</t>
+  </si>
+  <si>
+    <t>Pistachio</t>
+  </si>
+  <si>
+    <t>Natural</t>
+  </si>
+  <si>
+    <t>Sunflower Seeds</t>
+  </si>
+  <si>
+    <t>Walnuts</t>
+  </si>
+  <si>
+    <t>Other Nuts</t>
+  </si>
+  <si>
+    <t>Okra</t>
+  </si>
+  <si>
+    <t>Onion</t>
+  </si>
+  <si>
+    <t>Boiling</t>
+  </si>
+  <si>
+    <t>Bulb</t>
+  </si>
+  <si>
+    <t>California Sweet</t>
+  </si>
+  <si>
+    <t>Maui</t>
+  </si>
+  <si>
+    <t>Other Sweet</t>
+  </si>
+  <si>
+    <t>Pearl</t>
+  </si>
+  <si>
+    <t>Pickling, White</t>
+  </si>
+  <si>
+    <t>Shallouts</t>
+  </si>
+  <si>
+    <t>Flat</t>
+  </si>
+  <si>
+    <t>Texas Sweet</t>
+  </si>
+  <si>
+    <t>Vidalia</t>
+  </si>
+  <si>
+    <t>Walla Walla</t>
+  </si>
+  <si>
+    <t>Yellow/ Brwon</t>
+  </si>
+  <si>
+    <t>Blood</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>Small-Seedless</t>
+  </si>
+  <si>
+    <t>Juice</t>
+  </si>
+  <si>
+    <t>Lima</t>
+  </si>
+  <si>
+    <t>Maltaise</t>
+  </si>
+  <si>
+    <t>Midknight</t>
+  </si>
+  <si>
+    <t>Navel</t>
+  </si>
+  <si>
+    <t>Cara</t>
+  </si>
+  <si>
+    <t>Naveline</t>
+  </si>
+  <si>
+    <t>Pera</t>
+  </si>
+  <si>
+    <t>Salustiana</t>
+  </si>
+  <si>
+    <t>Seville</t>
+  </si>
+  <si>
+    <t>Shamouti</t>
+  </si>
+  <si>
+    <t>Tangelo Minneola</t>
+  </si>
+  <si>
+    <t>Temple</t>
+  </si>
+  <si>
+    <t>Valenica</t>
+  </si>
+  <si>
+    <t>Papaya</t>
+  </si>
+  <si>
+    <t>Babaco</t>
+  </si>
+  <si>
+    <t>Cooking</t>
+  </si>
+  <si>
+    <t>Meridol</t>
+  </si>
+  <si>
+    <t>Red-Fleshed</t>
+  </si>
+  <si>
+    <t>Parnip</t>
+  </si>
+  <si>
+    <t>Parnips</t>
+  </si>
+  <si>
+    <t>Passion Fruit</t>
+  </si>
+  <si>
+    <t>Curuba</t>
+  </si>
+  <si>
+    <t>Grenadilla Orange</t>
+  </si>
+  <si>
+    <t>Grenadilla Yellow</t>
+  </si>
+  <si>
+    <t>Peach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donut </t>
+  </si>
+  <si>
+    <t>Red Flush</t>
+  </si>
+  <si>
+    <t>Tree Ripened</t>
+  </si>
+  <si>
+    <t>Large-Oragnic</t>
+  </si>
+  <si>
+    <t>Pea</t>
+  </si>
+  <si>
+    <t>Blackeyed</t>
+  </si>
+  <si>
+    <t>Chick Pea</t>
+  </si>
+  <si>
+    <t>Pea Pod</t>
+  </si>
+  <si>
+    <t>Sugar Snap</t>
+  </si>
+  <si>
+    <t>Pear</t>
+  </si>
+  <si>
+    <t>Abate Fetel</t>
+  </si>
+  <si>
+    <t>Alexander Lucas</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>Bartlett</t>
+  </si>
+  <si>
+    <t>Bartlett Red</t>
+  </si>
+  <si>
+    <t>Beurre Hardy</t>
+  </si>
+  <si>
+    <t>Bon Rouge</t>
+  </si>
+  <si>
+    <t>Bosc</t>
+  </si>
+  <si>
+    <t>Chinese Yali</t>
+  </si>
+  <si>
+    <t>Clara Friis</t>
+  </si>
+  <si>
+    <t>Comice</t>
+  </si>
+  <si>
+    <t>Concorde</t>
+  </si>
+  <si>
+    <t>Conference</t>
+  </si>
+  <si>
+    <t>D'Anjou</t>
+  </si>
+  <si>
+    <t>Durondeau</t>
+  </si>
+  <si>
+    <t>Flamingo</t>
+  </si>
+  <si>
+    <t>Forelle</t>
+  </si>
+  <si>
+    <t>General Leclerc</t>
+  </si>
+  <si>
+    <t>Guyot</t>
+  </si>
+  <si>
+    <t>Josephine</t>
+  </si>
+  <si>
+    <t>King Royal</t>
+  </si>
+  <si>
+    <t>Louise Bonne</t>
+  </si>
+  <si>
+    <t>Packham</t>
+  </si>
+  <si>
+    <t>Passe Crassane</t>
+  </si>
+  <si>
+    <t>Rocha</t>
+  </si>
+  <si>
+    <t>Rosemarie</t>
+  </si>
+  <si>
+    <t>Santa MAria</t>
+  </si>
+  <si>
+    <t>Seckel</t>
+  </si>
+  <si>
+    <t>Starkrimson</t>
+  </si>
+  <si>
+    <t>Taylors Gold</t>
+  </si>
+  <si>
+    <t>Triumph De Vienne</t>
+  </si>
+  <si>
+    <t>Winter Neils</t>
+  </si>
+  <si>
+    <t>Pepper</t>
+  </si>
+  <si>
+    <t>Anaheim</t>
+  </si>
+  <si>
+    <t>Green/Red</t>
+  </si>
+  <si>
+    <t>Yellow/ Long</t>
+  </si>
+  <si>
+    <t>Bell</t>
+  </si>
+  <si>
+    <t>Brwon</t>
+  </si>
+  <si>
+    <t>Golden Yellow</t>
+  </si>
+  <si>
+    <t>Green/ Small</t>
+  </si>
+  <si>
+    <t>Green/Large</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red </t>
+  </si>
+  <si>
+    <t>Bell-Greenhouse</t>
+  </si>
+  <si>
+    <t>Green/Small</t>
+  </si>
+  <si>
+    <t>Chilli</t>
+  </si>
+  <si>
+    <t>Cubanelle</t>
+  </si>
+  <si>
+    <t>Habanero</t>
+  </si>
+  <si>
+    <t>Hot</t>
+  </si>
+  <si>
+    <t>Hot Mixed</t>
+  </si>
+  <si>
+    <t>Hungarian Wax</t>
+  </si>
+  <si>
+    <t>Jalapeno</t>
+  </si>
+  <si>
+    <t>Japenese</t>
+  </si>
+  <si>
+    <t>Long/Hot</t>
+  </si>
+  <si>
+    <t>Morita Chili</t>
+  </si>
+  <si>
+    <t>Negro</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pasilla </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green </t>
+  </si>
+  <si>
+    <t>Pod</t>
+  </si>
+  <si>
+    <t>Pinole</t>
+  </si>
+  <si>
+    <t>Poblano</t>
+  </si>
+  <si>
+    <t>Red Cheese</t>
+  </si>
+  <si>
+    <t>Red Finger</t>
+  </si>
+  <si>
+    <t>Red Pimiento</t>
+  </si>
+  <si>
+    <t>Red/ Sweet</t>
+  </si>
+  <si>
+    <t>Serrano</t>
+  </si>
+  <si>
+    <t>Tabasco</t>
+  </si>
+  <si>
+    <t>Persimmon</t>
+  </si>
+  <si>
+    <t>American Persimmon</t>
+  </si>
+  <si>
+    <t>Kaki</t>
+  </si>
+  <si>
+    <t>Pineapple</t>
+  </si>
+  <si>
+    <t>Jet Flesh</t>
+  </si>
+  <si>
+    <t>Perola</t>
+  </si>
+  <si>
+    <t>Queen</t>
+  </si>
+  <si>
+    <t>Pitahaya</t>
+  </si>
+  <si>
+    <t>Plum</t>
+  </si>
+  <si>
+    <t>Italian Pune</t>
+  </si>
+  <si>
+    <t>Prunes</t>
+  </si>
+  <si>
+    <t>Raisins</t>
+  </si>
+  <si>
+    <t>Black/ Dried</t>
+  </si>
+  <si>
+    <t>Golden Yellow/ Dried</t>
+  </si>
+  <si>
+    <t>Dried Prunes</t>
+  </si>
+  <si>
+    <t>Plumcot</t>
+  </si>
+  <si>
+    <t>Pomegrante</t>
+  </si>
+  <si>
+    <t>Potattp</t>
+  </si>
+  <si>
+    <t>Baking</t>
+  </si>
+  <si>
+    <t>Red- Organic</t>
+  </si>
+  <si>
+    <t>White-Organic</t>
+  </si>
+  <si>
+    <t>Sweet Patato</t>
+  </si>
+  <si>
+    <t>Creamer</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Russet</t>
+  </si>
+  <si>
+    <t>Orange-Small</t>
+  </si>
+  <si>
+    <t>Orange-Large</t>
+  </si>
+  <si>
+    <t>Red Flesh-Small</t>
+  </si>
+  <si>
+    <t>Red Flesh-Large</t>
+  </si>
+  <si>
+    <t>Yam</t>
+  </si>
+  <si>
+    <t>Kumara</t>
+  </si>
+  <si>
+    <t>Regulat</t>
+  </si>
+  <si>
+    <t>Pumpkin</t>
+  </si>
+  <si>
+    <t>Decorative</t>
+  </si>
+  <si>
+    <t>Ornamental</t>
+  </si>
+  <si>
+    <t>Pie Pumpkin</t>
+  </si>
+  <si>
+    <t>Quince</t>
+  </si>
+  <si>
+    <t>Radicchio</t>
+  </si>
+  <si>
+    <t>Castlefranco</t>
+  </si>
+  <si>
+    <t>Treviso</t>
+  </si>
+  <si>
+    <t>Radish</t>
+  </si>
+  <si>
+    <t>Bunched</t>
+  </si>
+  <si>
+    <t>Daikon</t>
+  </si>
+  <si>
+    <t>Rambutan</t>
+  </si>
+  <si>
+    <t>Rhubarb</t>
+  </si>
+  <si>
+    <t>Bunch-Organic</t>
+  </si>
+  <si>
+    <t>Salad Bar</t>
+  </si>
+  <si>
+    <t>Sapote</t>
+  </si>
+  <si>
+    <t>Sapodillo</t>
+  </si>
+  <si>
+    <t>Soursop</t>
+  </si>
+  <si>
+    <t>Spinach</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Squash</t>
+  </si>
+  <si>
+    <t>Acron</t>
+  </si>
+  <si>
+    <t>Swan</t>
+  </si>
+  <si>
+    <t>Australian Blue</t>
+  </si>
+  <si>
+    <t>Bitter Melon</t>
+  </si>
+  <si>
+    <t>Buttercup</t>
+  </si>
+  <si>
+    <t>Butternut</t>
+  </si>
+  <si>
+    <t>Calabaza</t>
+  </si>
+  <si>
+    <t>Carnival</t>
+  </si>
+  <si>
+    <t>Choko</t>
+  </si>
+  <si>
+    <t>Crown Prince</t>
+  </si>
+  <si>
+    <t>Cucuzza</t>
+  </si>
+  <si>
+    <t>Delicata</t>
+  </si>
+  <si>
+    <t>Ge,</t>
+  </si>
+  <si>
+    <t>Goldem Delicious</t>
+  </si>
+  <si>
+    <t>Golden Nugget</t>
+  </si>
+  <si>
+    <t>Hubbard</t>
+  </si>
+  <si>
+    <t>Kabocha</t>
+  </si>
+  <si>
+    <t>Opo</t>
+  </si>
+  <si>
+    <t>Patty Pam</t>
+  </si>
+  <si>
+    <t>Red Kuri</t>
+  </si>
+  <si>
+    <t>Scallopini</t>
+  </si>
+  <si>
+    <t>Spaghetti</t>
+  </si>
+  <si>
+    <t>Sunburst</t>
+  </si>
+  <si>
+    <t>Sweet Mama</t>
+  </si>
+  <si>
+    <t>Turban</t>
+  </si>
+  <si>
+    <t>Vegetable Marrow</t>
+  </si>
+  <si>
+    <t>Yellow Crookneck</t>
+  </si>
+  <si>
+    <t>Yellow Straightneck</t>
+  </si>
+  <si>
+    <t>Yellow Zucchini</t>
+  </si>
+  <si>
+    <t>Zucchini</t>
+  </si>
+  <si>
+    <t>Round</t>
+  </si>
+  <si>
+    <t>Sugarcane</t>
+  </si>
+  <si>
+    <t>Tamarillo</t>
+  </si>
+  <si>
+    <t>Tamarindo</t>
+  </si>
+  <si>
+    <t>Tangerine</t>
+  </si>
+  <si>
+    <t>Clementine</t>
+  </si>
+  <si>
+    <t>Medium-Organic</t>
+  </si>
+  <si>
+    <t>Dancy</t>
+  </si>
+  <si>
+    <t>Ellendale</t>
+  </si>
+  <si>
+    <t>Imperial</t>
+  </si>
+  <si>
+    <t>Jamacian</t>
+  </si>
+  <si>
+    <t>Kinnow</t>
+  </si>
+  <si>
+    <t>Royal</t>
+  </si>
+  <si>
+    <t>Nova</t>
+  </si>
+  <si>
+    <t>Satsuma</t>
+  </si>
+  <si>
+    <t>Clauselina</t>
+  </si>
+  <si>
+    <t>Okitsu</t>
+  </si>
+  <si>
+    <t>Tangelo</t>
+  </si>
+  <si>
+    <t>Mandarin</t>
+  </si>
+  <si>
+    <t>Tamato</t>
+  </si>
+  <si>
+    <t>Beef</t>
+  </si>
+  <si>
+    <t>On the vine</t>
+  </si>
+  <si>
+    <t>Intermediate Red</t>
+  </si>
+  <si>
+    <t>GreenHouse</t>
+  </si>
+  <si>
+    <t>Red-Small</t>
+  </si>
+  <si>
+    <t>Red-Large</t>
+  </si>
+  <si>
+    <t>Heirloom</t>
+  </si>
+  <si>
+    <t>Native</t>
+  </si>
+  <si>
+    <t>Red-on the vine</t>
+  </si>
+  <si>
+    <t>Teardrop</t>
+  </si>
+  <si>
+    <t>Tomatillos</t>
+  </si>
+  <si>
+    <t>Vine Ripe</t>
+  </si>
+  <si>
+    <t>Taro Root</t>
+  </si>
+  <si>
+    <t>Trunip</t>
+  </si>
+  <si>
+    <t>Purple Top</t>
+  </si>
+  <si>
+    <t>Waterchestnuts</t>
+  </si>
+  <si>
+    <t>Yucca Root</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -607,16 +1726,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <color rgb="FF0A0000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <color rgb="FF0A0000"/>
-      <name val="Inherit"/>
-    </font>
+    <font/>
     <font>
       <i/>
       <color rgb="FF0A0000"/>
@@ -659,13 +1769,13 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -906,201 +2016,237 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="D3" s="1">
         <v>4132.0</v>
       </c>
+      <c r="E3" s="1">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1">
         <v>4134.0</v>
       </c>
+      <c r="E4" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1">
         <v>3283.0</v>
       </c>
+      <c r="E5" s="1">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1">
         <v>4138.0</v>
       </c>
+      <c r="E6" s="1">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1">
         <v>4139.0</v>
       </c>
+      <c r="E7" s="1">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1">
         <v>4017.0</v>
       </c>
+      <c r="E8" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1">
         <v>4017.0</v>
       </c>
+      <c r="E9" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1">
         <v>3071.0</v>
       </c>
+      <c r="E10" s="1">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1">
         <v>3422.0</v>
       </c>
+      <c r="E11" s="3">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1">
         <v>4218.0</v>
       </c>
+      <c r="E12" s="3">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="1">
         <v>3302.0</v>
       </c>
+      <c r="E13" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" s="1">
         <v>4861.0</v>
       </c>
+      <c r="E14" s="1">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="1">
         <v>4219.0</v>
       </c>
+      <c r="E15" s="1">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" s="1">
         <v>3390.0</v>
@@ -1108,13 +2254,13 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1">
         <v>4080.0</v>
@@ -1122,13 +2268,13 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" s="1">
         <v>4521.0</v>
@@ -1136,13 +2282,13 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="D19" s="1">
         <v>33923.0</v>
@@ -1150,13 +2296,13 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" s="1">
         <v>3079.0</v>
@@ -1164,58 +2310,82 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="D21" s="1">
         <v>33943.0</v>
       </c>
+      <c r="E21" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" s="1">
         <v>4522.0</v>
       </c>
+      <c r="E22" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="1">
         <v>4523.0</v>
       </c>
+      <c r="E23" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="D24" s="1">
         <v>33933.0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="25">
@@ -1231,19 +2401,31 @@
       <c r="D25" s="1">
         <v>4226.0</v>
       </c>
+      <c r="E25" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26" s="1">
         <v>42211.0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="27">
@@ -1251,13 +2433,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D27" s="1">
         <v>47711.0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>4.0</v>
       </c>
     </row>
     <row r="28">
@@ -1265,13 +2450,16 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D28" s="1">
         <v>42231.0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>4.0</v>
       </c>
     </row>
     <row r="29">
@@ -1279,13 +2467,16 @@
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D29" s="1">
         <v>4224.0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2.0</v>
       </c>
     </row>
     <row r="30">
@@ -1293,13 +2484,16 @@
         <v>25</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30" s="1">
         <v>4046.0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2.0</v>
       </c>
     </row>
     <row r="31">
@@ -1307,13 +2501,16 @@
         <v>25</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D31" s="1">
         <v>4225.0</v>
+      </c>
+      <c r="E31" s="4">
+        <v>2.0</v>
       </c>
     </row>
     <row r="32">
@@ -1321,13 +2518,16 @@
         <v>25</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D32" s="1">
         <v>4770.0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>3.0</v>
       </c>
     </row>
     <row r="33">
@@ -1335,13 +2535,16 @@
         <v>25</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D33" s="1">
         <v>3080.0</v>
+      </c>
+      <c r="E33" s="4">
+        <v>4.0</v>
       </c>
     </row>
     <row r="34">
@@ -1349,360 +2552,435 @@
         <v>25</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D34" s="1">
         <v>33543.0</v>
       </c>
+      <c r="E34" s="4">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D35" s="1">
         <v>4232.0</v>
       </c>
+      <c r="E35" s="4">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D36" s="1">
         <v>4229.0</v>
       </c>
+      <c r="E36" s="4">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D37" s="1">
         <v>4230.0</v>
       </c>
+      <c r="E37" s="4">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D38" s="1">
         <v>4231.0</v>
       </c>
+      <c r="E38" s="4">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D39" s="1">
         <v>3287.0</v>
       </c>
+      <c r="E39" s="4">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D40" s="1">
         <v>4233.0</v>
       </c>
+      <c r="E40" s="4">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D41" s="1">
         <v>4234.0</v>
       </c>
+      <c r="E41" s="4">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D42" s="1">
         <v>4235.0</v>
       </c>
+      <c r="E42" s="4">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D43" s="1">
         <v>4236.0</v>
       </c>
+      <c r="E43" s="4">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D44" s="1">
         <v>4011.0</v>
       </c>
+      <c r="E44" s="4">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D45" s="1">
         <v>4186.0</v>
       </c>
+      <c r="E45" s="4">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D46" s="1">
         <v>4237.0</v>
       </c>
+      <c r="E46" s="4">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D47" s="1">
         <v>4238.0</v>
       </c>
+      <c r="E47" s="4">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D48" s="1">
         <v>94011.0</v>
       </c>
+      <c r="E48" s="4">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D49" s="1">
         <v>84011.0</v>
       </c>
+      <c r="E49" s="4">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D50" s="1">
         <v>84186.0</v>
       </c>
+      <c r="E50" s="4">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D51" s="1">
         <v>4536.0</v>
       </c>
+      <c r="E51" s="4">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D52" s="1">
         <v>4537.0</v>
       </c>
+      <c r="E52" s="4">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D53" s="1">
         <v>4528.0</v>
       </c>
+      <c r="E53" s="4">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D54" s="1">
         <v>3049.0</v>
       </c>
+      <c r="E54" s="4">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D55" s="1">
         <v>4066.0</v>
       </c>
+      <c r="E55" s="4">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D56" s="1">
         <v>4533.0</v>
       </c>
+      <c r="E56" s="4">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D57" s="1">
         <v>4534.0</v>
       </c>
+      <c r="E57" s="4">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D58" s="1">
         <v>4537.0</v>
       </c>
+      <c r="E58" s="4">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D59" s="1">
         <v>4538.0</v>
@@ -1710,13 +2988,13 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D60" s="1">
         <v>4542.0</v>
@@ -1724,13 +3002,13 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D61" s="1">
         <v>4539.0</v>
@@ -1738,13 +3016,13 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D62" s="1">
         <v>3273.0</v>
@@ -1752,13 +3030,13 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D63" s="1">
         <v>4540.0</v>
@@ -1766,13 +3044,13 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D64" s="1">
         <v>4541.0</v>
@@ -1780,10 +3058,10 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D65" s="1">
         <v>4244.0</v>
@@ -1791,10 +3069,10 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D66" s="1">
         <v>4239.0</v>
@@ -1802,10 +3080,10 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D67" s="1">
         <v>4240.0</v>
@@ -1813,10 +3091,10 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D68" s="1">
         <v>4242.0</v>
@@ -1824,10 +3102,10 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D69" s="1">
         <v>4245.0</v>
@@ -1835,10 +3113,10 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D70" s="1">
         <v>4243.0</v>
@@ -1846,10 +3124,10 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D71" s="1">
         <v>4054.0</v>
@@ -1857,10 +3135,10 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D72" s="1">
         <v>3304.0</v>
@@ -1868,13 +3146,13 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D73" s="1">
         <v>4323.0</v>
@@ -1882,13 +3160,13 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D74" s="1">
         <v>4250.0</v>
@@ -1896,13 +3174,13 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D75" s="1">
         <v>42491.0</v>
@@ -1910,38 +3188,38 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D76" s="1">
         <v>4251.0</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D78" s="1">
         <v>4028.0</v>
@@ -1949,13 +3227,13 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D79" s="1">
         <v>42461.0</v>
@@ -1963,13 +3241,13 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D80" s="1">
         <v>4248.0</v>
@@ -1977,13 +3255,13 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D81" s="1">
         <v>42471.0</v>
@@ -1991,13 +3269,13 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D82" s="1">
         <v>4254.0</v>
@@ -2005,13 +3283,13 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D83" s="1">
         <v>3277.0</v>
@@ -2019,13 +3297,13 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D84" s="1">
         <v>4060.0</v>
@@ -2033,13 +3311,13 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D85" s="1">
         <v>4527.0</v>
@@ -2047,13 +3325,13 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D86" s="1">
         <v>3082.0</v>
@@ -2061,13 +3339,13 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D87" s="1">
         <v>4548.0</v>
@@ -2075,13 +3353,13 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D88" s="1">
         <v>3320.0</v>
@@ -2089,13 +3367,13 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D89" s="1">
         <v>4549.0</v>
@@ -2103,13 +3381,13 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D90" s="1">
         <v>4550.0</v>
@@ -2117,13 +3395,13 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D91" s="1">
         <v>3083.0</v>
@@ -2131,13 +3409,13 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D92" s="1">
         <v>4552.0</v>
@@ -2145,13 +3423,13 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D93" s="1">
         <v>3050.0</v>
@@ -2159,13 +3437,13 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D94" s="1">
         <v>4069.0</v>
@@ -2173,13 +3451,13 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D95" s="1">
         <v>4554.0</v>
@@ -2187,13 +3465,13 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D96" s="1">
         <v>4555.0</v>
@@ -2201,13 +3479,13 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D97" s="1">
         <v>3396.0</v>
@@ -2215,13 +3493,13 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D98" s="1">
         <v>3051.0</v>
@@ -2229,13 +3507,13 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D99" s="1">
         <v>3397.0</v>
@@ -2243,13 +3521,13 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D100" s="1">
         <v>3166.0</v>
@@ -2257,13 +3535,13 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D101" s="1">
         <v>4558.0</v>
@@ -2271,13 +3549,13 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D102" s="1">
         <v>4255.0</v>
@@ -2285,13 +3563,13 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D103" s="1">
         <v>4256.0</v>
@@ -2299,13 +3577,13 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D104" s="1">
         <v>4559.0</v>
@@ -2313,13 +3591,13 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D105" s="1">
         <v>4560.0</v>
@@ -2327,13 +3605,13 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D106" s="1">
         <v>4094.0</v>
@@ -2341,13 +3619,13 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D107" s="1">
         <v>4563.0</v>
@@ -2355,13 +3633,13 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D108" s="1">
         <v>4561.0</v>
@@ -2369,13 +3647,13 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D109" s="1">
         <v>4562.0</v>
@@ -2383,13 +3661,13 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D110" s="1">
         <v>3424.0</v>
@@ -2397,13 +3675,13 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D111" s="1">
         <v>4564.0</v>
@@ -2411,13 +3689,13 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D112" s="1">
         <v>4565.0</v>
@@ -2425,10 +3703,10 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D113" s="1">
         <v>4573.0</v>
@@ -2436,13 +3714,13 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D114" s="1">
         <v>4079.0</v>
@@ -2450,13 +3728,13 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D115" s="1">
         <v>4572.0</v>
@@ -2464,10 +3742,10 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D116" s="1">
         <v>4566.0</v>
@@ -2475,10 +3753,10 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D117" s="1">
         <v>4567.0</v>
@@ -2486,10 +3764,10 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D118" s="1">
         <v>4568.0</v>
@@ -2497,13 +3775,13 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D119" s="1">
         <v>4070.0</v>
@@ -2511,13 +3789,13 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D120" s="1">
         <v>4070.0</v>
@@ -2525,13 +3803,13 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D121" s="1">
         <v>40711.0</v>
@@ -2539,13 +3817,13 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D122" s="1">
         <v>4583.0</v>
@@ -2553,13 +3831,13 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D123" s="1">
         <v>45821.0</v>
@@ -2567,13 +3845,13 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D124" s="1">
         <v>4585.0</v>
@@ -2581,13 +3859,13 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D125" s="1">
         <v>3321.0</v>
@@ -2595,13 +3873,13 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D126" s="1">
         <v>4575.0</v>
@@ -2609,13 +3887,13 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D127" s="1">
         <v>4576.0</v>
@@ -2623,13 +3901,13 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D128" s="1">
         <v>4586.0</v>
@@ -2637,13 +3915,13 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D129" s="1">
         <v>4587.0</v>
@@ -2651,13 +3929,13 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D130" s="1">
         <v>4257.0</v>
@@ -2665,13 +3943,13 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D131" s="1">
         <v>4045.0</v>
@@ -2679,13 +3957,13 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D132" s="1">
         <v>33573.0</v>
@@ -2693,13 +3971,13 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D133" s="1">
         <v>33583.0</v>
@@ -2707,13 +3985,13 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D134" s="1">
         <v>4258.0</v>
@@ -2721,10 +3999,10 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D135" s="1">
         <v>3163.0</v>
@@ -2732,13 +4010,13 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D136" s="1">
         <v>4544.0</v>
@@ -2746,13 +4024,13 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D137" s="1">
         <v>3322.0</v>
@@ -2760,13 +4038,13 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D138" s="1">
         <v>3323.0</v>
@@ -2774,13 +4052,13 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D139" s="1">
         <v>3160.0</v>
@@ -2788,13 +4066,13 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D140" s="1">
         <v>4607.0</v>
@@ -2802,13 +4080,13 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D141" s="1">
         <v>6161.0</v>
@@ -2816,13 +4094,13 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D142" s="1">
         <v>3162.0</v>
@@ -2830,13 +4108,13 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D143" s="1">
         <v>3164.0</v>
@@ -2844,13 +4122,13 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D144" s="1">
         <v>4261.0</v>
@@ -2858,13 +4136,13 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D145" s="1">
         <v>4260.0</v>
@@ -2872,13 +4150,13 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D146" s="1">
         <v>4262.0</v>
@@ -2886,13 +4164,13 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D147" s="1">
         <v>3086.0</v>
@@ -2900,13 +4178,13 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D148" s="1">
         <v>3085.0</v>
@@ -2914,13 +4192,13 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D149" s="1">
         <v>3087.0</v>
@@ -2928,13 +4206,13 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D150" s="1">
         <v>4589.0</v>
@@ -2942,13 +4220,13 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D151" s="1">
         <v>4591.0</v>
@@ -2956,13 +4234,13 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D152" s="1">
         <v>4590.0</v>
@@ -2970,13 +4248,13 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D153" s="1">
         <v>4077.0</v>
@@ -2984,13 +4262,13 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D154" s="1">
         <v>4078.0</v>
@@ -2998,13 +4276,13 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D155" s="1">
         <v>4592.0</v>
@@ -3012,13 +4290,13 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D156" s="1">
         <v>4593.0</v>
@@ -3026,13 +4304,13 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D157" s="1">
         <v>4062.0</v>
@@ -3040,13 +4318,13 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D158" s="1">
         <v>4594.0</v>
@@ -3054,13 +4332,13 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D159" s="1">
         <v>4595.0</v>
@@ -3068,13 +4346,13 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D160" s="1">
         <v>4596.0</v>
@@ -3082,13 +4360,13 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D161" s="1">
         <v>4597.0</v>
@@ -3096,13 +4374,13 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D162" s="1">
         <v>3305.0</v>
@@ -3110,13 +4388,13 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D163" s="1">
         <v>3088.0</v>
@@ -3124,13 +4402,13 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D164" s="1">
         <v>4263.0</v>
@@ -3138,13 +4416,13 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D165" s="1">
         <v>3045.0</v>
@@ -3152,13 +4430,13 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D166" s="1">
         <v>3046.0</v>
@@ -3166,13 +4444,13 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D167" s="1">
         <v>3047.0</v>
@@ -3180,13 +4458,13 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D168" s="1">
         <v>4862.0</v>
@@ -3194,13 +4472,13 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D169" s="1">
         <v>4863.0</v>
@@ -3208,13 +4486,13 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D170" s="1">
         <v>4864.0</v>
@@ -3222,66 +4500,87 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D171" s="1">
         <v>4599.0</v>
       </c>
     </row>
     <row r="172">
+      <c r="A172" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="B172" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D172" s="1">
         <v>4600.0</v>
       </c>
     </row>
     <row r="173">
+      <c r="A173" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="B173" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D173" s="1">
         <v>3089.0</v>
       </c>
     </row>
     <row r="174">
+      <c r="A174" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="B174" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D174" s="1">
         <v>4601.0</v>
       </c>
     </row>
     <row r="175">
+      <c r="A175" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="B175" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D175" s="1">
         <v>4081.0</v>
       </c>
     </row>
     <row r="176">
+      <c r="A176" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="B176" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D176" s="1">
         <v>3090.0</v>
       </c>
     </row>
     <row r="177">
+      <c r="A177" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="B177" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D177" s="1">
         <v>4602.0</v>
       </c>
     </row>
     <row r="178">
+      <c r="A178" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="B178" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D178" s="1">
         <v>4603.0</v>
@@ -3289,7 +4588,7 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D179" s="1">
         <v>4265.0</v>
@@ -3297,7 +4596,7 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D180" s="1">
         <v>4606.0</v>
@@ -3305,13 +4604,13 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D181" s="1">
         <v>4266.0</v>
@@ -3319,13 +4618,13 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D182" s="1">
         <v>4267.0</v>
@@ -3333,13 +4632,13 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D183" s="1">
         <v>4268.0</v>
@@ -3347,13 +4646,13 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D184" s="1">
         <v>3337.0</v>
@@ -3361,10 +4660,10 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D185" s="1">
         <v>4269.0</v>
@@ -3372,10 +4671,10 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D186" s="1">
         <v>4609.0</v>
@@ -3383,7 +4682,7 @@
     </row>
     <row r="187">
       <c r="B187" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D187" s="1">
         <v>3401.0</v>
@@ -3391,7 +4690,7 @@
     </row>
     <row r="188">
       <c r="B188" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D188" s="1">
         <v>4608.0</v>
@@ -3399,7 +4698,7 @@
     </row>
     <row r="189">
       <c r="B189" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D189" s="1">
         <v>3399.0</v>
@@ -3407,7 +4706,7 @@
     </row>
     <row r="190">
       <c r="B190" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D190" s="1">
         <v>3052.0</v>
@@ -3415,13 +4714,13 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D191" s="1">
         <v>4612.0</v>
@@ -3429,10 +4728,10 @@
     </row>
     <row r="192">
       <c r="B192" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D192" s="1">
         <v>4613.0</v>
@@ -3440,7 +4739,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D193" s="1">
         <v>3091.0</v>
@@ -3448,10 +4747,10 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D194" s="1">
         <v>4270.0</v>
@@ -3467,7 +4766,7 @@
     </row>
     <row r="196">
       <c r="B196" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D196" s="1">
         <v>4056.0</v>
@@ -3475,7 +4774,7 @@
     </row>
     <row r="197">
       <c r="B197" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D197" s="1">
         <v>4271.0</v>
@@ -3483,7 +4782,7 @@
     </row>
     <row r="198">
       <c r="B198" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D198" s="1">
         <v>4272.0</v>
@@ -3491,7 +4790,7 @@
     </row>
     <row r="199">
       <c r="B199" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D199" s="1">
         <v>4638.0</v>
@@ -3499,7 +4798,7 @@
     </row>
     <row r="200">
       <c r="B200" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D200" s="1">
         <v>3043.0</v>
@@ -3507,7 +4806,7 @@
     </row>
     <row r="201">
       <c r="B201" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D201" s="1">
         <v>4273.0</v>
@@ -3515,7 +4814,7 @@
     </row>
     <row r="202">
       <c r="B202" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D202" s="1">
         <v>4497.0</v>
@@ -3523,7 +4822,7 @@
     </row>
     <row r="203">
       <c r="B203" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D203" s="1">
         <v>4274.0</v>
@@ -3539,7 +4838,7 @@
     </row>
     <row r="205">
       <c r="B205" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D205" s="1">
         <v>4498.0</v>
@@ -3547,10 +4846,10 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D206" s="1">
         <v>3092.0</v>
@@ -3558,10 +4857,10 @@
     </row>
     <row r="207">
       <c r="B207" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D207" s="1">
         <v>4285.0</v>
@@ -3569,7 +4868,7 @@
     </row>
     <row r="208">
       <c r="C208" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D208" s="1">
         <v>42841.0</v>
@@ -3577,7 +4876,7 @@
     </row>
     <row r="209">
       <c r="C209" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D209" s="1">
         <v>42862.0</v>
@@ -3585,7 +4884,7 @@
     </row>
     <row r="210">
       <c r="C210" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D210" s="1">
         <v>4288.0</v>
@@ -3593,7 +4892,7 @@
     </row>
     <row r="211">
       <c r="C211" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D211" s="1">
         <v>42892.0</v>
@@ -3601,7 +4900,7 @@
     </row>
     <row r="212">
       <c r="C212" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D212" s="1">
         <v>42871.0</v>
@@ -3609,7 +4908,7 @@
     </row>
     <row r="213">
       <c r="C213" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D213" s="1">
         <v>4492.0</v>
@@ -3617,7 +4916,7 @@
     </row>
     <row r="214">
       <c r="C214" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D214" s="1">
         <v>44911.0</v>
@@ -3625,7 +4924,7 @@
     </row>
     <row r="215">
       <c r="C215" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D215" s="1">
         <v>44932.0</v>
@@ -3633,10 +4932,10 @@
     </row>
     <row r="216">
       <c r="B216" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D216" s="1">
         <v>4291.0</v>
@@ -3644,7 +4943,7 @@
     </row>
     <row r="217">
       <c r="C217" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D217" s="1">
         <v>42901.0</v>
@@ -3652,7 +4951,7 @@
     </row>
     <row r="218">
       <c r="C218" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D218" s="1">
         <v>42922.0</v>
@@ -3660,7 +4959,7 @@
     </row>
     <row r="219">
       <c r="C219" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D219" s="1">
         <v>4294.0</v>
@@ -3668,7 +4967,7 @@
     </row>
     <row r="220">
       <c r="C220" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D220" s="1">
         <v>42931.0</v>
@@ -3676,7 +4975,7 @@
     </row>
     <row r="221">
       <c r="C221" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D221" s="1">
         <v>42952.0</v>
@@ -3684,7 +4983,7 @@
     </row>
     <row r="222">
       <c r="C222" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D222" s="1">
         <v>3159.0</v>
@@ -3692,7 +4991,7 @@
     </row>
     <row r="223">
       <c r="C223" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D223" s="1">
         <v>31571.0</v>
@@ -3700,7 +4999,7 @@
     </row>
     <row r="224">
       <c r="C224" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D224" s="1">
         <v>315582.0</v>
@@ -3708,65 +5007,4992 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F225" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D225" s="1">
+        <v>4884.0</v>
       </c>
     </row>
     <row r="226">
-      <c r="F226" s="4" t="s">
-        <v>181</v>
+      <c r="B226" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D226" s="1">
+        <v>4614.0</v>
       </c>
     </row>
     <row r="227">
-      <c r="F227" s="4" t="s">
-        <v>182</v>
+      <c r="B227" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D227" s="1">
+        <v>4615.0</v>
       </c>
     </row>
     <row r="228">
-      <c r="F228" s="4" t="s">
-        <v>183</v>
+      <c r="B228" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D228" s="1">
+        <v>4527.0</v>
       </c>
     </row>
     <row r="229">
-      <c r="F229" s="4" t="s">
-        <v>184</v>
+      <c r="B229" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D229" s="1">
+        <v>3095.0</v>
       </c>
     </row>
     <row r="230">
-      <c r="F230" s="4" t="s">
-        <v>185</v>
+      <c r="B230" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D230" s="1">
+        <v>4616.0</v>
       </c>
     </row>
     <row r="231">
-      <c r="F231" s="4" t="s">
-        <v>186</v>
+      <c r="B231" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D231" s="1">
+        <v>4617.0</v>
       </c>
     </row>
     <row r="232">
-      <c r="F232" s="4" t="s">
-        <v>187</v>
+      <c r="B232" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D232" s="1">
+        <v>4618.0</v>
       </c>
     </row>
     <row r="233">
-      <c r="F233" s="4" t="s">
-        <v>188</v>
+      <c r="B233" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D233" s="1">
+        <v>4619.0</v>
       </c>
     </row>
     <row r="234">
-      <c r="F234" s="5" t="s">
-        <v>189</v>
+      <c r="B234" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D234" s="1">
+        <v>4620.0</v>
       </c>
     </row>
     <row r="235">
-      <c r="F235" s="3" t="s">
-        <v>190</v>
+      <c r="A235" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D235" s="1">
+        <v>4299.0</v>
       </c>
     </row>
     <row r="236">
-      <c r="F236" s="4" t="s">
-        <v>191</v>
+      <c r="A236" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D236" s="1">
+        <v>3064.0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="B237" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D237" s="1">
+        <v>3338.0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="B238" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D238" s="1">
+        <v>4892.0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="B239" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D239" s="1">
+        <v>4885.0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="B240" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D240" s="1">
+        <v>4886.0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="B241" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D241" s="1">
+        <v>4887.0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="B242" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D242" s="1">
+        <v>3062.0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="B243" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D243" s="1">
+        <v>3419.0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="B244" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D244" s="1">
+        <v>3084.0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="B245" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D245" s="1">
+        <v>4888.0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="B246" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D246" s="1">
+        <v>4889.0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="B247" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D247" s="1">
+        <v>4891.0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="B248" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D248" s="1">
+        <v>4515.0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="B249" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D249" s="1">
+        <v>3063.0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="B250" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D250" s="1">
+        <v>4894.0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="B251" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D251" s="1">
+        <v>4895.0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="B252" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D252" s="1">
+        <v>4896.0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="B253" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D253" s="1">
+        <v>4897.0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="B254" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D254" s="1">
+        <v>4898.0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="B255" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D255" s="1">
+        <v>4671.0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="B256" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D256" s="1">
+        <v>4899.0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="B257" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D257" s="1">
+        <v>4901.0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="B258" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D258" s="1">
+        <v>4893.0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="B259" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D259" s="1">
+        <v>4903.0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="B260" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D260" s="1">
+        <v>4904.0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="B261" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D261" s="1">
+        <v>3139.0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="B262" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D262" s="1">
+        <v>4905.0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="B263" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D263" s="1">
+        <v>4906.0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="B264" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D264" s="1">
+        <v>4907.0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="B265" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D265" s="1">
+        <v>4908.0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="B266" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D266" s="1">
+        <v>4815.0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="B267" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D267" s="1">
+        <v>4902.0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="B268" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D268" s="1">
+        <v>4909.0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="B269" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D269" s="1">
+        <v>4923.0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D270" s="1">
+        <v>4300.0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D271" s="1">
+        <v>4625.0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D272" s="1">
+        <v>4626.0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D273" s="1">
+        <v>3279.0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="B274" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D274" s="1">
+        <v>4030.0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="B275" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D275" s="1">
+        <v>3280.0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="B276" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D276" s="1">
+        <v>4301.0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D277" s="1">
+        <v>4628.0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="B278" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D278" s="1">
+        <v>3096.0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D279" s="1">
+        <v>4303.0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D280" s="1">
+        <v>4629.0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="B281" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D281" s="1">
+        <v>34026.0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="B282" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D282" s="1">
+        <v>4630.0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="B283" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D283" s="1">
+        <v>34033.0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D284" s="1">
+        <v>4033.0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="C285" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D285" s="1">
+        <v>4958.0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="C286" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D286" s="1">
+        <v>4053.0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="C287" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D287" s="1">
+        <v>33626.0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="B288" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D288" s="1">
+        <v>4304.0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D289" s="1">
+        <v>4631.0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="B290" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D290" s="1">
+        <v>4632.0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="C291" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D291" s="1">
+        <v>3098.0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="B292" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D292" s="1">
+        <v>3169.0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="B293" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D293" s="1">
+        <v>4076.0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="B294" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D294" s="1">
+        <v>4633.0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="B295" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D295" s="1">
+        <v>401.0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="C296" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D296" s="1">
+        <v>46341.0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="B297" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D297" s="1">
+        <v>3325.0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="B298" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D298" s="1">
+        <v>3326.0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="B299" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D299" s="1">
+        <v>4639.0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="B300" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D300" s="1">
+        <v>3328.0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="B301" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D301" s="1">
+        <v>3327.0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="B302" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D302" s="1">
+        <v>3329.0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="C303" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D303" s="1">
+        <v>3330.0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="B304" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D304" s="1">
+        <v>4075.0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D305" s="1">
+        <v>4048.0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="B306" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D306" s="1">
+        <v>4305.0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="B307" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D307" s="1">
+        <v>4306.0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D308" s="1">
+        <v>4328.0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D309" s="1">
+        <v>4307.0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D310" s="1">
+        <v>4308.0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D311" s="1">
+        <v>3099.0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D312" s="1">
+        <v>4309.0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D313" s="1">
+        <v>3366.0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D314" s="1">
+        <v>4644.0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D315" s="1">
+        <v>4310.0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D316" s="1">
+        <v>3363.0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="B317" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D317" s="1">
+        <v>4311.0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="B318" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D318" s="1">
+        <v>3364.0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="B319" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D319" s="1">
+        <v>4051.0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="C320" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D320" s="1">
+        <v>4959.0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="B321" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D321" s="1">
+        <v>33653.0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="B322" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D322" s="1">
+        <v>4312.0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="B323" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D323" s="1">
+        <v>4313.0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="B324" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D324" s="1">
+        <v>4316.0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D325" s="1">
+        <v>3402.0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D326" s="1">
+        <v>4317.0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="B327" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D327" s="1">
+        <v>4049.0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="C328" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D328" s="1">
+        <v>43181.0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="C329" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D329" s="1">
+        <v>4050.0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="C330" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D330" s="1">
+        <v>43191.0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="B331" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D331" s="1">
+        <v>4320.0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="B332" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D332" s="1">
+        <v>3033.0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="C333" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D333" s="1">
+        <v>3306.0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="C334" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D334" s="1">
+        <v>3034.0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="C335" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D335" s="1">
+        <v>3307.0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="B336" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D336" s="1">
+        <v>4301.0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="B337" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D337" s="1">
+        <v>4322.0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="B338" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D338" s="1">
+        <v>4324.0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="B339" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D339" s="1">
+        <v>4325.0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="B340" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D340" s="1">
+        <v>4326.0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="B341" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D341" s="1">
+        <v>4339.0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="B342" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D342" s="1">
+        <v>3289.0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="B343" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D343" s="1">
+        <v>3421.0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="C344" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D344" s="1">
+        <v>3308.0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="C345" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D345" s="1">
+        <v>4031.0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="C346" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D346" s="1">
+        <v>4032.0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="C347" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D347" s="1">
+        <v>4340.0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="C348" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D348" s="1">
+        <v>4341.0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="B349" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D349" s="1">
+        <v>4342.0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="D350" s="1">
+        <v>4378.0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D351" s="1">
+        <v>4646.0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="B352" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D352" s="1">
+        <v>3404.0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="B353" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D353" s="1">
+        <v>4647.0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="B354" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D354" s="1">
+        <v>4648.0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="B355" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D355" s="1">
+        <v>3103.0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="B356" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D356" s="1">
+        <v>3405.0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="B357" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D357" s="1">
+        <v>3406.0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="B358" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D358" s="1">
+        <v>3407.0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="B359" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D359" s="1">
+        <v>3408.0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="B360" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D360" s="1">
+        <v>3102.0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="B361" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D361" s="1">
+        <v>4649.0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="B362" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D362" s="1">
+        <v>3409.0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="B363" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D363" s="1">
+        <v>4650.0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="B364" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D364" s="1">
+        <v>4645.0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="C365" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D365" s="1">
+        <v>4085.0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="B366" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D366" s="1">
+        <v>3410.0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="B367" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D367" s="1">
+        <v>3411.0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="B368" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D368" s="1">
+        <v>4651.0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="B369" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D369" s="1">
+        <v>4652.0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="B370" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D370" s="1">
+        <v>4653.0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="B371" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D371" s="1">
+        <v>4654.0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D372" s="1">
+        <v>3369.0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="B373" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D373" s="1">
+        <v>4188.0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="C374" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D374" s="1">
+        <v>3035.0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="B375" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D375" s="1">
+        <v>4035.0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="C376" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D376" s="1">
+        <v>4036.0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="B377" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D377" s="1">
+        <v>4379.0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="D378" s="1">
+        <v>4380.0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D379" s="1">
+        <v>4924.0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="B380" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D380" s="1">
+        <v>4926.0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="B381" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D381" s="1">
+        <v>3105.0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="B382" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D382" s="1">
+        <v>4927.0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="B383" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D383" s="1">
+        <v>4928.0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="B384" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D384" s="1">
+        <v>3106.0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="B385" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D385" s="1">
+        <v>4929.0</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="B386" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D386" s="1">
+        <v>4930.0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="B387" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D387" s="1">
+        <v>4931.0</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="C388" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D388" s="1">
+        <v>4932.0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="C389" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D389" s="1">
+        <v>4933.0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="B390" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D390" s="1">
+        <v>4936.0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="B391" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D391" s="1">
+        <v>4938.0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="B392" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D392" s="1">
+        <v>4939.0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="C393" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D393" s="1">
+        <v>4940.0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="B394" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D394" s="1">
+        <v>4942.0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="B395" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D395" s="1">
+        <v>4943.0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="C396" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D396" s="1">
+        <v>4944.0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="C397" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D397" s="1">
+        <v>4945.0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="B398" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D398" s="1">
+        <v>4925.0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="B399" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D399" s="1">
+        <v>4934.0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="C400" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D400" s="1">
+        <v>4935.0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="B401" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D401" s="1">
+        <v>4937.0</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="B402" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D402" s="1">
+        <v>4941.0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="B403" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D403" s="1">
+        <v>4946.0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="B404" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D404" s="1">
+        <v>4947.0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="B405" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D405" s="1">
+        <v>4956.0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D406" s="1">
+        <v>4655.0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="B407" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D407" s="1">
+        <v>4656.0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="B408" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D408" s="1">
+        <v>4657.0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D409" s="1">
+        <v>4658.0</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="B410" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D410" s="1">
+        <v>4659.0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="B411" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D411" s="1">
+        <v>4165.0</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="B412" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D412" s="1">
+        <v>4068.0</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="B413" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D413" s="1">
+        <v>4164.0</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="B414" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D414" s="1">
+        <v>4166.0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="B415" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D415" s="1">
+        <v>4660.0</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="B416" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D416" s="1">
+        <v>4661.0</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="B417" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D417" s="1">
+        <v>4082.0</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="B418" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D418" s="1">
+        <v>3331.0</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="B419" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D419" s="1">
+        <v>4662.0</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="B420" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D420" s="1">
+        <v>3286.0</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="B421" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D421" s="1">
+        <v>4161.0</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="B422" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D422" s="1">
+        <v>4159.0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="B423" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D423" s="1">
+        <v>4163.0</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="B424" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D424" s="1">
+        <v>4663.0</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="B425" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D425" s="1">
+        <v>4665.0</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="C426" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D426" s="1">
+        <v>4093.0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="C427" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D427" s="1">
+        <v>3412.0</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="B428" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D428" s="1">
+        <v>4666.0</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="B429" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D429" s="1">
+        <v>4670.0</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D430" s="1">
+        <v>4381.0</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="B431" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D431" s="1">
+        <v>3028.0</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="C432" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D432" s="1">
+        <v>3153.0</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="C433" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D433" s="1">
+        <v>3154.0</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="B434" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D434" s="1">
+        <v>4382.0</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="B435" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D435" s="1">
+        <v>3309.0</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="B436" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D436" s="1">
+        <v>3370.0</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="B437" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D437" s="1">
+        <v>3036.0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="C438" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D438" s="1">
+        <v>3155.0</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="C439" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D439" s="1">
+        <v>3156.0</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="B440" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D440" s="1">
+        <v>4013.0</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="C441" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D441" s="1">
+        <v>43841.0</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="C442" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D442" s="1">
+        <v>43842.0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="C443" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D443" s="1">
+        <v>3107.0</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="C444" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D444" s="1">
+        <v>4012.0</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="C445" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D445" s="1">
+        <v>43851.0</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="C446" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D446" s="1">
+        <v>43852.0</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="B447" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D447" s="1">
+        <v>3110.0</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="B448" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D448" s="1">
+        <v>3373.0</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="B449" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D449" s="1">
+        <v>3310.0</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="B450" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D450" s="1">
+        <v>3371.0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="B451" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D451" s="1">
+        <v>3109.0</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="B452" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D452" s="1">
+        <v>3027.0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="B453" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D453" s="1">
+        <v>4383.0</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="B454" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D454" s="1">
+        <v>4386.0</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="C455" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D455" s="1">
+        <v>4387.0</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="B456" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D456" s="1">
+        <v>40141.0</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="C457" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D457" s="1">
+        <v>3108.0</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="C458" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D458" s="1">
+        <v>4388.0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="C459" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D459" s="1">
+        <v>33743.0</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="B460" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D460" s="1">
+        <v>4389.0</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="D461" s="1">
+        <v>4393.0</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D462" s="1">
+        <v>3303.0</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="B463" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D463" s="1">
+        <v>4395.0</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="B464" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D464" s="1">
+        <v>3112.0</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="B465" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D465" s="1">
+        <v>3111.0</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="B466" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D466" s="1">
+        <v>4052.0</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="C467" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D467" s="1">
+        <v>4394.0</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="B468" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D468" s="1">
+        <v>4396.0</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D469" s="1">
+        <v>3053.0</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="B470" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D470" s="1">
+        <v>4672.0</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D471" s="1">
+        <v>3311.0</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="B472" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D472" s="1">
+        <v>3038.0</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="B473" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D473" s="1">
+        <v>3312.0</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="B474" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D474" s="1">
+        <v>4397.0</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="B475" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D475" s="1">
+        <v>4398.0</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D476" s="1">
+        <v>3113.0</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="B477" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D477" s="1">
+        <v>4399.0</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="B478" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D478" s="1">
+        <v>3375.0</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="B479" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D479" s="1">
+        <v>4400.0</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="C480" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D480" s="1">
+        <v>4401.0</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="B481" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D481" s="1">
+        <v>3313.0</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="C482" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D482" s="1">
+        <v>3314.0</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="B483" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D483" s="1">
+        <v>4037.0</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="C484" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D484" s="1">
+        <v>44021.0</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="C485" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D485" s="1">
+        <v>4038.0</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="C486" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D486" s="1">
+        <v>44031.0</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="B487" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D487" s="1">
+        <v>4043.0</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="C488" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D488" s="1">
+        <v>31161.0</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="C489" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D489" s="1">
+        <v>4044.0</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="C490" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D490" s="1">
+        <v>31171.0</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D491" s="1">
+        <v>4673.0</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="B492" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D492" s="1">
+        <v>3398.0</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="B493" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D493" s="1">
+        <v>4092.0</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="B494" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D494" s="1">
+        <v>4674.0</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="B495" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D495" s="1">
+        <v>4675.0</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="B496" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D496" s="1">
+        <v>4676.0</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D497" s="1">
+        <v>3012.0</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="B498" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D498" s="1">
+        <v>3376.0</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="B499" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D499" s="1">
+        <v>4408.0</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="C500" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D500" s="1">
+        <v>4406.0</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="C501" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D501" s="1">
+        <v>4407.0</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="B502" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D502" s="1">
+        <v>4024.0</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="C503" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D503" s="1">
+        <v>4409.0</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="B504" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D504" s="1">
+        <v>4410.0</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="B505" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D505" s="1">
+        <v>3013.0</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="B506" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D506" s="1">
+        <v>3014.0</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="B507" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C507" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D507" s="1">
+        <v>4026.0</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="C508" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D508" s="1">
+        <v>44111.0</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="C509" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D509" s="1">
+        <v>4413.0</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="C510" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D510" s="1">
+        <v>44121.0</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="B511" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D511" s="1">
+        <v>4890.0</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="B512" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D512" s="1">
+        <v>3015.0</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="B513" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D513" s="1">
+        <v>4414.0</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="C514" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D514" s="1">
+        <v>3420.0</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="B515" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D515" s="1">
+        <v>3016.0</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="B516" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D516" s="1">
+        <v>3017.0</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="B517" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C517" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D517" s="1">
+        <v>4025.0</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="C518" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D518" s="1">
+        <v>4416.0</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="C519" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D519" s="1">
+        <v>4417.0</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="B520" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D520" s="1">
+        <v>3018.0</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="B521" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D521" s="1">
+        <v>3019.0</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="B522" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D522" s="1">
+        <v>4418.0</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="B523" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D523" s="1">
+        <v>4419.0</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="B524" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D524" s="1">
+        <v>3020.0</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="B525" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D525" s="1">
+        <v>3021.0</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="B526" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D526" s="1">
+        <v>3022.0</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="B527" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D527" s="1">
+        <v>4420.0</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="B528" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D528" s="1">
+        <v>3377.0</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="B529" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D529" s="1">
+        <v>4421.0</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="C530" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D530" s="1">
+        <v>3852.0</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="B531" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D531" s="1">
+        <v>3023.0</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="C532" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D532" s="1">
+        <v>3318.0</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="B533" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D533" s="1">
+        <v>4415.0</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="B534" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D534" s="1">
+        <v>3024.0</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="B535" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D535" s="1">
+        <v>3025.0</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="B536" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D536" s="1">
+        <v>3378.0</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="B537" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D537" s="1">
+        <v>4422.0</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="B538" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D538" s="1">
+        <v>3118.0</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="B539" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D539" s="1">
+        <v>4553.0</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="B540" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D540" s="1">
+        <v>4426.0</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="B541" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D541" s="1">
+        <v>3026.0</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="B542" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D542" s="1">
+        <v>4424.0</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="B543" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D543" s="1">
+        <v>4425.0</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="B544" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D544" s="1">
+        <v>4426.0</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D545" s="1">
+        <v>4677.0</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="B546" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D546" s="1">
+        <v>4678.0</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="B547" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D547" s="1">
+        <v>4679.0</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="C548" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D548" s="1">
+        <v>4680.0</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="C549" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D549" s="1">
+        <v>4681.0</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="C550" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D550" s="1">
+        <v>4065.0</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="C551" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D551" s="1">
+        <v>4682.0</v>
+      </c>
+      <c r="G551" s="5"/>
+    </row>
+    <row r="552">
+      <c r="C552" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D552" s="1">
+        <v>4683.0</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="C553" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D553" s="1">
+        <v>4088.0</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="C554" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D554" s="1">
+        <v>4684.0</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="B555" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D555" s="1">
+        <v>3123.0</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="C556" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D556" s="1">
+        <v>3119.0</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="C557" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D557" s="1">
+        <v>3120.0</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="C558" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D558" s="1">
+        <v>3121.0</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="C559" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D559" s="1">
+        <v>3124.0</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="C560" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D560" s="1">
+        <v>4688.0</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="C561" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D561" s="1">
+        <v>3122.0</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="C562" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D562" s="1">
+        <v>4689.0</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="B563" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D563" s="1">
+        <v>4685.0</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="C564" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D564" s="1">
+        <v>4686.0</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="C565" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D565" s="1">
+        <v>4772.0</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="B566" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D566" s="1">
+        <v>4687.0</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="B567" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D567" s="1">
+        <v>3125.0</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="B568" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D568" s="1">
+        <v>4690.0</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="B569" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D569" s="1">
+        <v>4691.0</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="B570" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D570" s="1">
+        <v>4692.0</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="B571" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C571" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D571" s="1">
+        <v>4693.0</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="C572" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D572" s="1">
+        <v>4694.0</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="B573" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D573" s="1">
+        <v>4695.0</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="B574" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D574" s="1">
+        <v>4696.0</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="C575" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D575" s="1">
+        <v>4697.0</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="B576" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D576" s="1">
+        <v>4698.0</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="B577" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D577" s="1">
+        <v>4699.0</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="B578" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D578" s="1">
+        <v>4700.0</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="B579" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C579" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D579" s="1">
+        <v>4701.0</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="C580" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D580" s="1">
+        <v>4702.0</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="C581" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D581" s="1">
+        <v>4703.0</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="B582" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D582" s="1">
+        <v>4704.0</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="B583" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D583" s="1">
+        <v>4705.0</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="B584" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D584" s="1">
+        <v>4706.0</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="B585" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D585" s="1">
+        <v>4707.0</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="B586" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C586" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D586" s="1">
+        <v>4708.0</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="B587" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D587" s="1">
+        <v>4709.0</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="B588" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D588" s="1">
+        <v>3413.0</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="B589" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D589" s="1">
+        <v>4710.0</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="B590" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D590" s="1">
+        <v>4722.0</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C591" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D591" s="1">
+        <v>4427.0</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="B592" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C592" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D592" s="1">
+        <v>4428.0</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="B593" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D593" s="1">
+        <v>4429.0</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C594" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D594" s="1">
+        <v>4431.0</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="C595" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D595" s="1">
+        <v>4432.0</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="B596" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C596" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D596" s="1">
+        <v>4029.0</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="C597" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D597" s="1">
+        <v>4430.0</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="B598" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D598" s="1">
+        <v>3379.0</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="B599" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D599" s="1">
+        <v>3380.0</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="B600" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D600" s="1">
+        <v>3037.0</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="B601" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D601" s="1">
+        <v>4864.0</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="B602" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D602" s="1">
+        <v>4433.0</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D603" s="1">
+        <v>3040.0</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="B604" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D604" s="1">
+        <v>3319.0</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C605" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D605" s="1">
+        <v>4039.0</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="C606" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D606" s="1">
+        <v>4040.0</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="B607" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C607" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D607" s="1">
+        <v>4434.0</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="C608" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D608" s="1">
+        <v>4435.0</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="B609" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D609" s="1">
+        <v>3278.0</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="B610" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D610" s="1">
+        <v>4436.0</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="B611" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C611" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D611" s="1">
+        <v>3274.0</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="C612" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D612" s="1">
+        <v>4866.0</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="B613" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C613" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D613" s="1">
+        <v>4865.0</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="B614" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C614" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D614" s="1">
+        <v>4437.0</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="C615" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D615" s="1">
+        <v>4438.0</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="B616" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C616" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D616" s="1">
+        <v>4868.0</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="C617" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D617" s="1">
+        <v>4869.0</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="B618" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C618" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D618" s="1">
+        <v>4041.0</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="C619" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D619" s="1">
+        <v>4042.0</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="B620" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C620" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D620" s="1">
+        <v>4439.0</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="C621" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D621" s="1">
+        <v>4440.0</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="B622" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C622" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D622" s="1">
+        <v>4441.0</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="C623" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D623" s="1">
+        <v>4442.0</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="B624" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D624" s="1">
+        <v>4443.0</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="B625" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D625" s="1">
+        <v>4444.0</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="B626" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D626" s="1">
+        <v>4867.0</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D627" s="1">
+        <v>3126.0</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C628" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D628" s="1">
+        <v>4445.0</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="C629" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D629" s="1">
+        <v>3127.0</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="B630" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D630" s="1">
+        <v>4446.0</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B631" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C631" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D631" s="1">
+        <v>34153.0</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="C632" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D632" s="1">
+        <v>34143.0</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="B633" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D633" s="1">
+        <v>4546.0</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="B634" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C634" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D634" s="1">
+        <v>4723.0</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="C635" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D635" s="1">
+        <v>4724.0</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="B636" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C636" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D636" s="1">
+        <v>4726.0</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="B637" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D637" s="1">
+        <v>3128.0</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="B638" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D638" s="1">
+        <v>4073.0</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="B639" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D639" s="1">
+        <v>4083.0</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="B640" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D640" s="1">
+        <v>4727.0</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="B641" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C641" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D641" s="1">
+        <v>4072.0</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="C642" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D642" s="1">
+        <v>47251.0</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="B643" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C643" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D643" s="1">
+        <v>4816.0</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="C644" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D644" s="1">
+        <v>4091.0</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="C645" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D645" s="1">
+        <v>3333.0</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="C646" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D646" s="1">
+        <v>3334.0</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="C647" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D647" s="1">
+        <v>4074.0</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="C648" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D648" s="1">
+        <v>4817.0</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="B649" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C649" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D649" s="1">
+        <v>4074.0</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="C650" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D650" s="1">
+        <v>4817.0</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="B651" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D651" s="1">
+        <v>3288.0</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="B652" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C652" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D652" s="1">
+        <v>4818.0</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="B653" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D653" s="1">
+        <v>4728.0</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="D654" s="1">
+        <v>4733.0</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B655" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D655" s="1">
+        <v>3131.0</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="B656" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D656" s="1">
+        <v>3130.0</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="B657" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D657" s="1">
+        <v>4734.0</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="B658" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D658" s="1">
+        <v>3133.0</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="B659" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D659" s="1">
+        <v>3135.0</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="B660" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D660" s="1">
+        <v>3134.0</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="B661" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D661" s="1">
+        <v>4735.0</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="B662" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D662" s="1">
+        <v>3132.0</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="B663" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D663" s="1">
+        <v>4736.0</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="B664" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D664" s="1">
+        <v>4737.0</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D665" s="1">
+        <v>4447.0</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B666" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D666" s="1">
+        <v>3168.0</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="B667" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D667" s="1">
+        <v>4738.0</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="B668" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D668" s="1">
+        <v>3165.0</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B669" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D669" s="1">
+        <v>4739.0</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="B670" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C670" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D670" s="1">
+        <v>4089.0</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="C671" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D671" s="1">
+        <v>4740.0</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="B672" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C672" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D672" s="1">
+        <v>4598.0</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="B673" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C673" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D673" s="1">
+        <v>4741.0</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="B674" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D674" s="1">
+        <v>4742.0</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="B675" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D675" s="1">
+        <v>4743.0</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="B676" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D676" s="1">
+        <v>4744.0</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D677" s="1">
+        <v>3041.0</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C678" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D678" s="1">
+        <v>4745.0</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="C679" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D679" s="1">
+        <v>34163.0</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D680" s="1">
+        <v>4470.0</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B681" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D681" s="1">
+        <v>3136.0</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="B682" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C682" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D682" s="1">
+        <v>3137.0</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="C683" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D683" s="1">
+        <v>3138.0</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D684" s="1">
+        <v>3381.0</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B685" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D685" s="1">
+        <v>3332.0</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="B686" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C686" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D686" s="1">
+        <v>34173.0</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="B687" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D687" s="1">
+        <v>4090.0</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="B688" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D688" s="1">
+        <v>4749.0</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B689" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D689" s="1">
+        <v>4750.0</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="B690" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D690" s="1">
+        <v>343.0</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="B691" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D691" s="1">
+        <v>4751.0</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="B692" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D692" s="1">
+        <v>4752.0</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="B693" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D693" s="1">
+        <v>4753.0</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="B694" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D694" s="1">
+        <v>4757.0</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="B695" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D695" s="1">
+        <v>4783.0</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="B696" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D696" s="1">
+        <v>4758.0</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="B697" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D697" s="1">
+        <v>4759.0</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="B698" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D698" s="1">
+        <v>4760.0</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="B699" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D699" s="1">
+        <v>3142.0</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="B700" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D700" s="1">
+        <v>4761.0</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="B701" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D701" s="1">
+        <v>6059.0</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="B702" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D702" s="1">
+        <v>3140.0</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="B703" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D703" s="1">
+        <v>4763.0</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="B704" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D704" s="1">
+        <v>4765.0</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="B705" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D705" s="1">
+        <v>4766.0</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="B706" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D706" s="1">
+        <v>4767.0</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="B707" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D707" s="1">
+        <v>4768.0</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="B708" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D708" s="1">
+        <v>4769.0</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="B709" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D709" s="1">
+        <v>3141.0</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="B710" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D710" s="1">
+        <v>4773.0</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="B711" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D711" s="1">
+        <v>4774.0</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="B712" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D712" s="1">
+        <v>4775.0</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="B713" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D713" s="1">
+        <v>4754.0</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="B714" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D714" s="1">
+        <v>4776.0</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="B715" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C715" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D715" s="1">
+        <v>4755.0</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="B716" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C716" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D716" s="1">
+        <v>4777.0</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="B717" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D717" s="1">
+        <v>4779.0</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="B718" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D718" s="1">
+        <v>4780.0</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="B719" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D719" s="1">
+        <v>3060.0</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="B720" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D720" s="1">
+        <v>4781.0</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="B721" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D721" s="1">
+        <v>4784.0</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="B722" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="D722" s="1">
+        <v>4782.0</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="B723" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D723" s="1">
+        <v>4086.0</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="B724" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D724" s="1">
+        <v>4067.0</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="C725" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D725" s="1">
+        <v>3418.0</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="C726" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D726" s="1">
+        <v>4756.0</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D727" s="1">
+        <v>4790.0</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B728" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D728" s="1">
+        <v>4792.0</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="B729" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D729" s="1">
+        <v>4793.0</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D730" s="1">
+        <v>4448.0</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B731" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C731" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D731" s="1">
+        <v>4450.0</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="C732" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D732" s="1">
+        <v>33833.0</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="C733" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D733" s="1">
+        <v>33853.0</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="C734" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D734" s="1">
+        <v>33863.0</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="C735" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D735" s="1">
+        <v>33873.0</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="B736" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D736" s="1">
+        <v>4451.0</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="B737" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C737" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D737" s="1">
+        <v>3032.0</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="C738" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D738" s="1">
+        <v>34253.0</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="C739" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D739" s="1">
+        <v>34293.0</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="C740" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D740" s="1">
+        <v>34303.0</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="B741" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C741" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D741" s="1">
+        <v>34313.0</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="C742" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D742" s="1">
+        <v>34323.0</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="C743" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D743" s="1">
+        <v>34333.0</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="B744" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D744" s="1">
+        <v>3031.0</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="B745" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D745" s="1">
+        <v>4454.0</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="B746" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D746" s="1">
+        <v>4455.0</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="B747" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D747" s="1">
+        <v>3030.0</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="B748" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D748" s="1">
+        <v>3029.0</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="B749" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C749" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D749" s="1">
+        <v>33883.0</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="B750" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C750" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D750" s="1">
+        <v>33893.0</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="B751" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D751" s="1">
+        <v>4449.0</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="B752" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D752" s="1">
+        <v>4456.0</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="B753" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D753" s="1">
+        <v>4459.0</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="B754" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D754" s="1">
+        <v>4055.0</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="B755" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D755" s="1">
+        <v>4457.0</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="B756" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D756" s="1">
+        <v>4458.0</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B757" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D757" s="1">
+        <v>3061.0</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="B758" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C758" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D758" s="1">
+        <v>4796.0</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="C759" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D759" s="1">
+        <v>3146.0</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="C760" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D760" s="1">
+        <v>4797.0</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="C761" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D761" s="1">
+        <v>3147.0</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="B762" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C762" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D762" s="1">
+        <v>3150.0</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="C763" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D763" s="1">
+        <v>3335.0</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="B764" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C764" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D764" s="1">
+        <v>3336.0</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="B765" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C765" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D765" s="1">
+        <v>4798.0</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="C766" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D766" s="1">
+        <v>4799.0</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="B767" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D767" s="1">
+        <v>3423.0</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="B768" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D768" s="1">
+        <v>4800.0</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="B769" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C769" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D769" s="1">
+        <v>4087.0</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="C770" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D770" s="1">
+        <v>3282.0</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="C771" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D771" s="1">
+        <v>3145.0</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="B772" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C772" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D772" s="1">
+        <v>4063.0</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="C773" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D773" s="1">
+        <v>4064.0</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="C774" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D774" s="1">
+        <v>4664.0</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="B775" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D775" s="1">
+        <v>4778.0</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="C776" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D776" s="1">
+        <v>3148.0</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="B777" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C777" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D777" s="1">
+        <v>4803.0</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="C778" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D778" s="1">
+        <v>4804.0</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="B779" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D779" s="1">
+        <v>4801.0</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="B780" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C780" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D780" s="1">
+        <v>4805.0</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="C781" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D781" s="1">
+        <v>3151.0</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="B782" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D782" s="1">
+        <v>4802.0</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="B783" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D783" s="1">
+        <v>4806.0</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="B784" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D784" s="1">
+        <v>4807.0</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="B785" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D785" s="1">
+        <v>4808.0</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C786" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D786" s="1">
+        <v>4794.0</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="C787" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D787" s="1">
+        <v>4795.0</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B788" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D788" s="1">
+        <v>4809.0</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="B789" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D789" s="1">
+        <v>4810.0</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="B790" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D790" s="1">
+        <v>4811.0</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="B791" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D791" s="1">
+        <v>4747.0</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="B792" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D792" s="1">
+        <v>4812.0</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="B793" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D793" s="1">
+        <v>4095.0</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="B794" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D794" s="1">
+        <v>4748.0</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="B795" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D795" s="1">
+        <v>4813.0</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D796" s="1">
+        <v>4814.0</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D797" s="1">
+        <v>4819.0</v>
       </c>
     </row>
   </sheetData>
